--- a/物联网技术/物联网课后练习-学习通.xlsx
+++ b/物联网技术/物联网课后练习-学习通.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\物联网技术\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEDF78E-E91B-405E-B0B7-F5D9192FC4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86236695-093F-4074-9DFA-936806FA4774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>下面不属于短距离无线IP接入技术的是（   ）。</t>
-  </si>
-  <si>
-    <t>Wi-Fi | 蓝牙 | ZigBee | 公共移动通信网</t>
   </si>
   <si>
     <t>7. (单选题)下面（    ）移动通信网络在数据流量、传输速率、传输时延、频谱效率方面，取得了大幅度的提升，并可以实现超密集网络。</t>
@@ -351,6 +348,10 @@
   </si>
   <si>
     <t>物联网技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.Wi-Fi | B.蓝牙 | C.ZigBee | D.公共移动通信网</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +724,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G47"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -786,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -809,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -832,7 +833,7 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -855,7 +856,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -878,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -901,7 +902,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -924,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -947,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -970,7 +971,7 @@
         <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -993,7 +994,7 @@
         <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1013,7 +1014,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1033,10 +1034,10 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1059,7 +1060,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1082,7 +1083,7 @@
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1105,7 +1106,7 @@
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1128,7 +1129,7 @@
         <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1151,7 +1152,7 @@
         <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1174,7 +1175,7 @@
         <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1197,7 +1198,7 @@
         <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1220,7 +1221,7 @@
         <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1240,7 +1241,7 @@
         <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1260,7 +1261,7 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1283,7 +1284,7 @@
         <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1306,7 +1307,7 @@
         <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1329,7 +1330,7 @@
         <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1349,10 +1350,10 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -1366,16 +1367,16 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1389,16 +1390,16 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -1412,16 +1413,16 @@
         <v>52</v>
       </c>
       <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s">
         <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
       </c>
       <c r="F30" t="s">
         <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -1435,16 +1436,16 @@
         <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
         <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -1458,16 +1459,16 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1481,16 +1482,16 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -1504,16 +1505,16 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1527,16 +1528,16 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -1550,16 +1551,16 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -1573,13 +1574,13 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
         <v>86</v>
       </c>
-      <c r="E37" t="s">
-        <v>87</v>
-      </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -1593,13 +1594,13 @@
         <v>36</v>
       </c>
       <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
         <v>88</v>
       </c>
-      <c r="E38" t="s">
-        <v>89</v>
-      </c>
       <c r="G38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -1613,13 +1614,13 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" t="s">
         <v>90</v>
       </c>
-      <c r="E39" t="s">
-        <v>91</v>
-      </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1633,13 +1634,13 @@
         <v>36</v>
       </c>
       <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
         <v>92</v>
       </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -1653,7 +1654,7 @@
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
         <v>54</v>
@@ -1662,7 +1663,7 @@
         <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -1676,16 +1677,16 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -1699,16 +1700,16 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -1722,16 +1723,16 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -1745,13 +1746,13 @@
         <v>36</v>
       </c>
       <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" t="s">
         <v>100</v>
       </c>
-      <c r="E45" t="s">
-        <v>101</v>
-      </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -1765,13 +1766,13 @@
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -1785,13 +1786,13 @@
         <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
